--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="H2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="I2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="J2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.827738000000002</v>
+        <v>0.989021</v>
       </c>
       <c r="N2">
-        <v>29.483214</v>
+        <v>2.967063</v>
       </c>
       <c r="O2">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="P2">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="Q2">
-        <v>6.944217428459334</v>
+        <v>1.104434805595</v>
       </c>
       <c r="R2">
-        <v>62.497956856134</v>
+        <v>9.939913250355</v>
       </c>
       <c r="S2">
-        <v>0.002007501210129137</v>
+        <v>0.0004882394175862812</v>
       </c>
       <c r="T2">
-        <v>0.002007501210129137</v>
+        <v>0.0004882394175862813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="H3">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="I3">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="J3">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.088209</v>
       </c>
       <c r="O3">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="P3">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="Q3">
-        <v>6.61565019580322</v>
+        <v>10.45532084975166</v>
       </c>
       <c r="R3">
-        <v>59.54085176222899</v>
+        <v>94.09788764776499</v>
       </c>
       <c r="S3">
-        <v>0.001912515832156565</v>
+        <v>0.004622001893185867</v>
       </c>
       <c r="T3">
-        <v>0.001912515832156565</v>
+        <v>0.004622001893185868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="H4">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="I4">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="J4">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.619965</v>
       </c>
       <c r="O4">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="P4">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="Q4">
-        <v>4.385583114185</v>
+        <v>6.930940605225</v>
       </c>
       <c r="R4">
-        <v>39.47024802766499</v>
+        <v>62.378465447025</v>
       </c>
       <c r="S4">
-        <v>0.001267826576507641</v>
+        <v>0.003063972981725342</v>
       </c>
       <c r="T4">
-        <v>0.001267826576507641</v>
+        <v>0.003063972981725343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>335.79602</v>
       </c>
       <c r="I5">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="J5">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.827738000000002</v>
+        <v>0.989021</v>
       </c>
       <c r="N5">
-        <v>29.483214</v>
+        <v>2.967063</v>
       </c>
       <c r="O5">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="P5">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="Q5">
-        <v>1100.038435334254</v>
+        <v>110.7031051654733</v>
       </c>
       <c r="R5">
-        <v>9900.345918008281</v>
+        <v>996.3279464892599</v>
       </c>
       <c r="S5">
-        <v>0.3180096984106131</v>
+        <v>0.04893871446025735</v>
       </c>
       <c r="T5">
-        <v>0.3180096984106131</v>
+        <v>0.04893871446025735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>335.79602</v>
       </c>
       <c r="I6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="J6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.088209</v>
       </c>
       <c r="O6">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="P6">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="Q6">
         <v>1047.989865680909</v>
@@ -818,10 +818,10 @@
         <v>9431.90879112818</v>
       </c>
       <c r="S6">
-        <v>0.3029629969441007</v>
+        <v>0.4632867047147399</v>
       </c>
       <c r="T6">
-        <v>0.3029629969441007</v>
+        <v>0.4632867047147399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>335.79602</v>
       </c>
       <c r="I7">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="J7">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.619965</v>
       </c>
       <c r="O7">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="P7">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="Q7">
         <v>694.7233488377001</v>
@@ -880,10 +880,10 @@
         <v>6252.5101395393</v>
       </c>
       <c r="S7">
-        <v>0.2008373121758764</v>
+        <v>0.3071175604950032</v>
       </c>
       <c r="T7">
-        <v>0.2008373121758764</v>
+        <v>0.3071175604950032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>70.689615</v>
       </c>
       <c r="I8">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="J8">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.827738000000002</v>
+        <v>0.989021</v>
       </c>
       <c r="N8">
-        <v>29.483214</v>
+        <v>2.967063</v>
       </c>
       <c r="O8">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="P8">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="Q8">
-        <v>231.57300518029</v>
+        <v>23.304504572305</v>
       </c>
       <c r="R8">
-        <v>2084.15704662261</v>
+        <v>209.740541150745</v>
       </c>
       <c r="S8">
-        <v>0.06694535315490741</v>
+        <v>0.0103022629148211</v>
       </c>
       <c r="T8">
-        <v>0.06694535315490742</v>
+        <v>0.0103022629148211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>70.689615</v>
       </c>
       <c r="I9">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="J9">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>28.088209</v>
       </c>
       <c r="O9">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="P9">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="Q9">
         <v>220.6160755832817</v>
@@ -1004,10 +1004,10 @@
         <v>1985.544680249535</v>
       </c>
       <c r="S9">
-        <v>0.06377781849000072</v>
+        <v>0.09752813267680674</v>
       </c>
       <c r="T9">
-        <v>0.06377781849000075</v>
+        <v>0.09752813267680675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>70.689615</v>
       </c>
       <c r="I10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="J10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.619965</v>
       </c>
       <c r="O10">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="P10">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="Q10">
         <v>146.248684129275</v>
@@ -1066,10 +1066,10 @@
         <v>1316.238157163475</v>
       </c>
       <c r="S10">
-        <v>0.04227897720570815</v>
+        <v>0.06465241044587422</v>
       </c>
       <c r="T10">
-        <v>0.04227897720570815</v>
+        <v>0.06465241044587422</v>
       </c>
     </row>
   </sheetData>
